--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_NgocHoan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_NgocHoan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="44" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -260,6 +260,144 @@
   <si>
     <t>TG102V</t>
   </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Le4.1.04.BOO01.221222</t>
+  </si>
+  <si>
+    <t>Thiết bị thường xuyên mất tín hiệu GSM</t>
+  </si>
+  <si>
+    <t>Nạp lại FW module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15959</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>TG102LE-4G (GD)</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục, cháy led GSM</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, thay led GSM</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Nguồn thiết bị chập chờn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi  connector nguồn</t>
+  </si>
+  <si>
+    <t>Thay connector</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>TG102LE (STM)</t>
+  </si>
+  <si>
+    <t>LE4.1.00.---06.200724</t>
+  </si>
+  <si>
+    <t>Module 7600E</t>
+  </si>
+  <si>
+    <t>Lỗi connector nguồn</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GPS</t>
+  </si>
+  <si>
+    <t>Thay module GPS</t>
+  </si>
 </sst>
 </file>
 
@@ -268,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +476,11 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -464,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -691,6 +834,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -709,38 +888,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1081,43 +1236,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1162,58 +1317,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="82" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -1244,17 +1399,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="89"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,7 +1421,7 @@
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="64" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E6" s="65">
         <v>862205051196824</v>
@@ -1276,19 +1431,37 @@
         <v>67</v>
       </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="I6" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>76</v>
+      </c>
       <c r="N6" s="71"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1300,26 +1473,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="68">
+        <v>44937</v>
+      </c>
       <c r="C7" s="68"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
+      <c r="D7" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="65">
+        <v>862649049681845</v>
+      </c>
       <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="G7" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>100</v>
+      </c>
       <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="L7" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>90</v>
+      </c>
       <c r="N7" s="71"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="64"/>
+      <c r="O7" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1348,7 +1547,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1377,7 +1576,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1406,7 +1605,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1435,7 +1634,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1464,7 +1663,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1495,7 +1694,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1524,7 +1723,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1553,7 +1752,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1582,7 +1781,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1701,7 +1900,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1733,7 +1932,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1978,7 +2177,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2170,7 +2369,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2234,7 +2433,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2810,13 +3009,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2828,6 +3020,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2839,7 +3038,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2871,43 +3070,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -2952,58 +3151,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="82" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3034,17 +3233,17 @@
       <c r="K5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="89"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3059,16 +3258,22 @@
         <v>44</v>
       </c>
       <c r="E6" s="65">
-        <v>862649049681845</v>
+        <v>868183034769534</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="I6" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>79</v>
+      </c>
       <c r="L6" s="70"/>
       <c r="M6" s="70"/>
       <c r="N6" s="71"/>
@@ -3078,7 +3283,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3098,26 +3303,44 @@
         <v>44</v>
       </c>
       <c r="E7" s="65">
-        <v>868183034769534</v>
+        <v>868183034686431</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="H7" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>79</v>
+      </c>
       <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="L7" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>95</v>
+      </c>
       <c r="N7" s="71"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="3"/>
+      <c r="O7" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="73"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3130,31 +3353,49 @@
       <c r="B8" s="68">
         <v>44937</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="64" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="65">
-        <v>868183034686431</v>
+        <v>868183034541818</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="3"/>
+      <c r="H8" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="71"/>
+      <c r="O8" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="73"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3167,31 +3408,47 @@
       <c r="B9" s="68">
         <v>44937</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="64" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="65">
-        <v>868183034541818</v>
+        <v>867857039919316</v>
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="3"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="71"/>
+      <c r="O9" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="73"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3204,31 +3461,47 @@
       <c r="B10" s="68">
         <v>44937</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="64" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="65">
-        <v>867857039919316</v>
+        <v>868183034550355</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="71"/>
+      <c r="O10" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10" s="73"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3241,31 +3514,49 @@
       <c r="B11" s="68">
         <v>44937</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="64" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="65">
-        <v>868183034550355</v>
+        <v>868183038052820</v>
       </c>
       <c r="F11" s="64"/>
       <c r="G11" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
+      <c r="H11" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="71"/>
+      <c r="O11" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="73"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3275,20 +3566,12 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="68">
-        <v>44937</v>
-      </c>
+      <c r="B12" s="68"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="65">
-        <v>868183038052820</v>
-      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="64"/>
-      <c r="G12" s="64" t="s">
-        <v>65</v>
-      </c>
+      <c r="G12" s="64"/>
       <c r="H12" s="1"/>
       <c r="I12" s="54"/>
       <c r="J12" s="1"/>
@@ -3302,7 +3585,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3333,7 +3616,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3362,7 +3645,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3391,7 +3674,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3420,7 +3703,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3539,7 +3822,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3571,7 +3854,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3603,7 +3886,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -3816,7 +4099,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -3880,7 +4163,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4008,7 +4291,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4040,7 +4323,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -4072,7 +4355,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4648,13 +4931,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4666,6 +4942,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4709,43 +4992,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4790,58 +5073,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="82" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -4872,17 +5155,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="89"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4896,7 +5179,7 @@
       <c r="D6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="76" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="64"/>
@@ -4916,7 +5199,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4935,7 +5218,7 @@
       <c r="D7" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="76" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="64"/>
@@ -4955,7 +5238,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4992,7 +5275,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5021,7 +5304,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5050,7 +5333,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5079,7 +5362,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5108,7 +5391,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5139,7 +5422,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5168,7 +5451,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5197,7 +5480,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5226,7 +5509,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6454,13 +6737,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6472,6 +6748,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6482,8 +6765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6515,43 +6798,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6596,58 +6879,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="82" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -6678,17 +6961,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="89"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6710,19 +6993,31 @@
         <v>65</v>
       </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="I6" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>115</v>
+      </c>
       <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="71"/>
+      <c r="L6" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="96">
+        <v>385000</v>
+      </c>
       <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
+      <c r="P6" s="71" t="s">
+        <v>78</v>
+      </c>
       <c r="Q6" s="72"/>
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6749,8 +7044,12 @@
         <v>65</v>
       </c>
       <c r="H7" s="64"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="I7" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="69" t="s">
+        <v>115</v>
+      </c>
       <c r="K7" s="70"/>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
@@ -6761,7 +7060,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6790,7 +7089,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6819,7 +7118,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6848,7 +7147,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6877,7 +7176,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6906,7 +7205,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6937,7 +7236,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6966,7 +7265,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6995,7 +7294,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7024,7 +7323,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8252,13 +8551,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8270,6 +8562,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8280,8 +8579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8313,43 +8612,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8394,58 +8693,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="82" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -8476,17 +8775,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="89"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8509,20 +8808,40 @@
       <c r="G6" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="H6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>112</v>
+      </c>
       <c r="N6" s="71"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>92</v>
+      </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8549,19 +8868,35 @@
         <v>65</v>
       </c>
       <c r="H7" s="64"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="I7" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>104</v>
+      </c>
       <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="L7" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>108</v>
+      </c>
       <c r="N7" s="71"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="3"/>
+      <c r="O7" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="73"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8574,7 +8909,7 @@
       <c r="B8" s="68">
         <v>44937</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="64" t="s">
         <v>71</v>
       </c>
@@ -8587,20 +8922,36 @@
       <c r="G8" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="3"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="71"/>
+      <c r="O8" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="73"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8629,7 +8980,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8658,7 +9009,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8687,7 +9038,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8716,7 +9067,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8747,7 +9098,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8776,7 +9127,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8805,7 +9156,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8834,7 +9185,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9017,7 +9368,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -9230,7 +9581,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9294,7 +9645,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9422,7 +9773,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9486,7 +9837,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10062,13 +10413,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10080,6 +10424,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10123,43 +10474,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10204,58 +10555,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10280,23 +10631,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10322,7 +10673,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10353,7 +10704,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10382,7 +10733,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10411,7 +10762,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10440,7 +10791,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10469,7 +10820,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10498,7 +10849,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10529,7 +10880,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10558,7 +10909,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10587,7 +10938,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10616,7 +10967,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11847,6 +12198,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11858,13 +12216,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_NgocHoan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_NgocHoan.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="121">
   <si>
     <t>STT</t>
   </si>
@@ -397,6 +397,15 @@
   </si>
   <si>
     <t>Thay module GPS</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Thiết lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn</t>
   </si>
 </sst>
 </file>
@@ -846,6 +855,9 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -893,9 +905,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -1236,43 +1245,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1317,58 +1326,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="89"/>
+      <c r="L4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -1399,17 +1408,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,7 +1470,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1518,7 +1527,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1547,7 +1556,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1576,7 +1585,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1605,7 +1614,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1634,7 +1643,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1663,7 +1672,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1694,7 +1703,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1723,7 +1732,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1752,7 +1761,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1781,7 +1790,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3037,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3070,43 +3079,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3151,58 +3160,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="89"/>
+      <c r="L4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3233,17 +3242,17 @@
       <c r="K5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3274,16 +3283,28 @@
       <c r="K6" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="L6" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="71"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="73"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3340,7 +3361,7 @@
       </c>
       <c r="S7" s="73"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3395,7 +3416,7 @@
       </c>
       <c r="S8" s="73"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3448,7 +3469,7 @@
       </c>
       <c r="S9" s="73"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3501,7 +3522,7 @@
       </c>
       <c r="S10" s="73"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3556,7 +3577,7 @@
       </c>
       <c r="S11" s="73"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3585,7 +3606,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3616,7 +3637,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3645,7 +3666,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3674,7 +3695,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3703,7 +3724,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3854,7 +3875,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4291,7 +4312,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4355,7 +4376,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4960,7 +4981,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4992,43 +5013,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -5073,58 +5094,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="89"/>
+      <c r="L4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -5155,17 +5176,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5199,7 +5220,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5238,7 +5259,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5275,7 +5296,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5304,7 +5325,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5333,7 +5354,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5362,7 +5383,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5391,7 +5412,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5422,7 +5443,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5451,7 +5472,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5480,7 +5501,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5509,7 +5530,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6766,7 +6787,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6798,43 +6819,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6879,58 +6900,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="89"/>
+      <c r="L4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -6961,17 +6982,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7006,7 +7027,7 @@
       <c r="M6" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="N6" s="96">
+      <c r="N6" s="80">
         <v>385000</v>
       </c>
       <c r="O6" s="70"/>
@@ -7017,7 +7038,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7043,24 +7064,40 @@
       <c r="G7" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="64"/>
+      <c r="H7" s="64" t="s">
+        <v>83</v>
+      </c>
       <c r="I7" s="69" t="s">
         <v>85</v>
       </c>
       <c r="J7" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="K7" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>120</v>
+      </c>
       <c r="N7" s="71"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="64"/>
+      <c r="O7" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7089,7 +7126,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7118,7 +7155,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7147,7 +7184,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7213,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7205,7 +7242,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7236,7 +7273,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7265,7 +7302,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7294,7 +7331,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7323,7 +7360,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7474,7 +7511,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -7719,7 +7756,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -7975,7 +8012,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8579,7 +8616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -8612,43 +8649,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8693,58 +8730,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="89"/>
+      <c r="L4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -8775,17 +8812,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8841,7 +8878,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8896,7 +8933,7 @@
       </c>
       <c r="S7" s="73"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8951,7 +8988,7 @@
       </c>
       <c r="S8" s="73"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8980,7 +9017,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9009,7 +9046,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9038,7 +9075,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9067,7 +9104,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9098,7 +9135,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9127,7 +9164,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9156,7 +9193,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9185,7 +9222,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10474,43 +10511,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="94" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="94"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10555,58 +10592,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10631,23 +10668,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10673,7 +10710,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10704,7 +10741,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10733,7 +10770,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10762,7 +10799,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10791,7 +10828,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10820,7 +10857,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10849,7 +10886,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10880,7 +10917,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10909,7 +10946,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10938,7 +10975,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10967,7 +11004,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_NgocHoan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_NgocHoan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="44" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="125">
   <si>
     <t>STT</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Test lại thiết bị</t>
   </si>
   <si>
-    <t>TG102LE (STM)</t>
-  </si>
-  <si>
     <t>LE4.1.00.---06.200724</t>
   </si>
   <si>
@@ -396,9 +393,6 @@
     <t>Thiết bị lỗi module GPS</t>
   </si>
   <si>
-    <t>Thay module GPS</t>
-  </si>
-  <si>
     <t>SE.4.00.---06.200630</t>
   </si>
   <si>
@@ -406,6 +400,24 @@
   </si>
   <si>
     <t>Xử lý lại nguồn</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi không dò được nhiệt độ</t>
+  </si>
+  <si>
+    <t>Không sửa chữa được</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Báo giá không sửa chữa</t>
+  </si>
+  <si>
+    <t>TG102LE - 4G (STM)</t>
+  </si>
+  <si>
+    <t>Thiết bị đứt dây kết nối</t>
   </si>
 </sst>
 </file>
@@ -858,30 +870,6 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -900,11 +888,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1245,43 +1257,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1326,58 +1338,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -1408,17 +1420,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1428,7 +1440,9 @@
       <c r="B6" s="68">
         <v>44937</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68">
+        <v>44953</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>84</v>
       </c>
@@ -1470,7 +1484,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1485,9 +1499,11 @@
       <c r="B7" s="68">
         <v>44937</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="68">
+        <v>44953</v>
+      </c>
       <c r="D7" s="64" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E7" s="65">
         <v>862649049681845</v>
@@ -1497,17 +1513,17 @@
         <v>65</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I7" s="69" t="s">
         <v>93</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M7" s="70" t="s">
         <v>90</v>
@@ -1527,7 +1543,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1556,7 +1572,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1585,7 +1601,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1614,7 +1630,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1643,7 +1659,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1672,7 +1688,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1703,7 +1719,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1732,7 +1748,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1761,7 +1777,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +1806,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3018,6 +3034,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3029,13 +3052,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3046,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3079,43 +3095,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3160,58 +3176,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3242,17 +3258,17 @@
       <c r="K5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3262,7 +3278,9 @@
       <c r="B6" s="68">
         <v>44937</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68">
+        <v>44953</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>44</v>
       </c>
@@ -3278,13 +3296,13 @@
         <v>85</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K6" s="70" t="s">
         <v>79</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M6" s="70" t="s">
         <v>38</v>
@@ -3304,7 +3322,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3319,7 +3337,9 @@
       <c r="B7" s="68">
         <v>44937</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="68">
+        <v>44953</v>
+      </c>
       <c r="D7" s="64" t="s">
         <v>44</v>
       </c>
@@ -3361,7 +3381,7 @@
       </c>
       <c r="S7" s="73"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3374,7 +3394,9 @@
       <c r="B8" s="68">
         <v>44937</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="68">
+        <v>44953</v>
+      </c>
       <c r="D8" s="64" t="s">
         <v>44</v>
       </c>
@@ -3416,7 +3438,7 @@
       </c>
       <c r="S8" s="73"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3429,7 +3451,9 @@
       <c r="B9" s="68">
         <v>44937</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="68">
+        <v>44953</v>
+      </c>
       <c r="D9" s="64" t="s">
         <v>44</v>
       </c>
@@ -3469,7 +3493,7 @@
       </c>
       <c r="S9" s="73"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3482,7 +3506,9 @@
       <c r="B10" s="68">
         <v>44937</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="68">
+        <v>44953</v>
+      </c>
       <c r="D10" s="64" t="s">
         <v>44</v>
       </c>
@@ -3522,7 +3548,7 @@
       </c>
       <c r="S10" s="73"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3535,7 +3561,9 @@
       <c r="B11" s="68">
         <v>44937</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="68">
+        <v>44953</v>
+      </c>
       <c r="D11" s="64" t="s">
         <v>44</v>
       </c>
@@ -3577,7 +3605,7 @@
       </c>
       <c r="S11" s="73"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3606,7 +3634,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3637,7 +3665,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3666,7 +3694,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3695,7 +3723,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3724,7 +3752,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4952,6 +4980,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4963,13 +4998,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4981,7 +5009,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5013,43 +5041,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -5094,58 +5122,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -5176,27 +5204,29 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="73">
         <v>1</v>
       </c>
       <c r="B6" s="68">
         <v>44937</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68">
+        <v>44953</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>57</v>
       </c>
@@ -5211,16 +5241,28 @@
       <c r="I6" s="69"/>
       <c r="J6" s="70"/>
       <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="L6" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>120</v>
+      </c>
       <c r="N6" s="71"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5229,13 +5271,15 @@
       <c r="W6" s="75"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="73">
         <v>2</v>
       </c>
       <c r="B7" s="68">
         <v>44937</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="68">
+        <v>44953</v>
+      </c>
       <c r="D7" s="64" t="s">
         <v>57</v>
       </c>
@@ -5250,29 +5294,43 @@
       <c r="I7" s="69"/>
       <c r="J7" s="70"/>
       <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="L7" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>120</v>
+      </c>
       <c r="N7" s="71"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="3"/>
+      <c r="O7" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="73"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="75"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="73">
         <v>3</v>
       </c>
       <c r="B8" s="68">
         <v>44937</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="68">
+        <v>44953</v>
+      </c>
       <c r="D8" s="64" t="s">
         <v>57</v>
       </c>
@@ -5283,20 +5341,32 @@
       <c r="G8" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="3"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="71"/>
+      <c r="O8" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="73"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5325,7 +5395,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5354,7 +5424,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5383,7 +5453,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5412,7 +5482,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5443,7 +5513,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5472,7 +5542,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5501,7 +5571,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5530,7 +5600,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5681,7 +5751,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -5990,7 +6060,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6182,7 +6252,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6300,7 +6370,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -6758,6 +6828,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6769,13 +6846,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6786,8 +6856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6819,43 +6889,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6900,58 +6970,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -6982,17 +7052,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7002,7 +7072,9 @@
       <c r="B6" s="68">
         <v>44937</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68">
+        <v>44953</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>70</v>
       </c>
@@ -7018,19 +7090,19 @@
         <v>96</v>
       </c>
       <c r="J6" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K6" s="70"/>
       <c r="L6" s="70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="N6" s="80">
-        <v>385000</v>
-      </c>
-      <c r="O6" s="70"/>
+        <v>122</v>
+      </c>
+      <c r="N6" s="80"/>
+      <c r="O6" s="70" t="s">
+        <v>121</v>
+      </c>
       <c r="P6" s="71" t="s">
         <v>78</v>
       </c>
@@ -7038,7 +7110,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7053,7 +7125,9 @@
       <c r="B7" s="68">
         <v>44937</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="68">
+        <v>44953</v>
+      </c>
       <c r="D7" s="64" t="s">
         <v>70</v>
       </c>
@@ -7071,16 +7145,16 @@
         <v>85</v>
       </c>
       <c r="J7" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K7" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="70" t="s">
         <v>118</v>
-      </c>
-      <c r="L7" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="M7" s="70" t="s">
-        <v>120</v>
       </c>
       <c r="N7" s="71"/>
       <c r="O7" s="70" t="s">
@@ -7097,7 +7171,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7126,7 +7200,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7155,7 +7229,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7184,7 +7258,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7213,7 +7287,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7242,7 +7316,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7273,7 +7347,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7302,7 +7376,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7331,7 +7405,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7360,7 +7434,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8130,7 +8204,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -8588,6 +8662,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8599,13 +8680,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8616,8 +8690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8649,43 +8723,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8730,58 +8804,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -8812,17 +8886,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8832,7 +8906,9 @@
       <c r="B6" s="68">
         <v>44937</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68">
+        <v>44953</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>71</v>
       </c>
@@ -8846,22 +8922,22 @@
         <v>65</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I6" s="69" t="s">
         <v>88</v>
       </c>
       <c r="J6" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="K6" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="70" t="s">
+      <c r="M6" s="70" t="s">
         <v>111</v>
-      </c>
-      <c r="M6" s="70" t="s">
-        <v>112</v>
       </c>
       <c r="N6" s="71"/>
       <c r="O6" s="70" t="s">
@@ -8878,7 +8954,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8893,7 +8969,9 @@
       <c r="B7" s="68">
         <v>44937</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="68">
+        <v>44953</v>
+      </c>
       <c r="D7" s="64" t="s">
         <v>71</v>
       </c>
@@ -8909,14 +8987,14 @@
         <v>96</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="70" t="s">
         <v>107</v>
-      </c>
-      <c r="M7" s="70" t="s">
-        <v>108</v>
       </c>
       <c r="N7" s="71"/>
       <c r="O7" s="70" t="s">
@@ -8929,11 +9007,11 @@
         <v>91</v>
       </c>
       <c r="R7" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S7" s="73"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8946,7 +9024,9 @@
       <c r="B8" s="68">
         <v>44937</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="68">
+        <v>44953</v>
+      </c>
       <c r="D8" s="64" t="s">
         <v>71</v>
       </c>
@@ -8965,13 +9045,13 @@
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="70" t="s">
+      <c r="M8" s="70" t="s">
         <v>105</v>
-      </c>
-      <c r="M8" s="70" t="s">
-        <v>106</v>
       </c>
       <c r="N8" s="71"/>
       <c r="O8" s="70" t="s">
@@ -8988,7 +9068,7 @@
       </c>
       <c r="S8" s="73"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -9017,7 +9097,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9046,7 +9126,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9075,7 +9155,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9104,7 +9184,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9135,7 +9215,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9164,7 +9244,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9193,7 +9273,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9222,7 +9302,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10450,6 +10530,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10461,13 +10548,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10478,8 +10558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" topLeftCell="C6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10511,43 +10591,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10592,58 +10672,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10668,23 +10748,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10710,7 +10790,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10741,7 +10821,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10770,7 +10850,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10799,7 +10879,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10828,7 +10908,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10857,7 +10937,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10886,7 +10966,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10917,7 +10997,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10946,7 +11026,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10975,7 +11055,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11004,7 +11084,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12235,13 +12315,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12253,6 +12326,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
